--- a/Power BI入门数据源/项目1-咖啡店运营情况分析/咖啡店项目需求1.xlsx
+++ b/Power BI入门数据源/项目1-咖啡店运营情况分析/咖啡店项目需求1.xlsx
@@ -5,23 +5,30 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myPython\miniweb\powerbi\LL_PowerBI\Power BI入门数据源\项目1-咖啡店运营情况分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mygithub\powerBi\Power BI入门数据源\项目1-咖啡店运营情况分析\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BC9AC1-765B-4C56-B777-68C6487978B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11D0F7DC-9C98-4FB4-8E0F-B21272CEDBE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
     <sheet name="参考" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>项目要求</t>
   </si>
@@ -32,9 +39,6 @@
     <t>财务方向</t>
   </si>
   <si>
-    <t>过去两年中，销售额、支出、利润和利润率分别是多少？</t>
-  </si>
-  <si>
     <t>参考公式</t>
   </si>
   <si>
@@ -56,18 +60,9 @@
     <t>产品方向</t>
   </si>
   <si>
-    <t>展示每种产品按月的销量变化情况</t>
-  </si>
-  <si>
     <t>利润率=利润/销售额</t>
   </si>
   <si>
-    <t>在地图上展示每个城市的产品销售情况</t>
-  </si>
-  <si>
-    <t>最受欢迎的产品是哪种？最受欢迎的产品中最受欢迎的杯型是那种？</t>
-  </si>
-  <si>
     <t>实现方式</t>
   </si>
   <si>
@@ -78,9 +73,6 @@
   </si>
   <si>
     <t>展示各门店在2016年的销售额情况</t>
-  </si>
-  <si>
-    <t>找出业绩超过平均销售额的门店</t>
   </si>
   <si>
     <t>查看单店的平均销售额</t>
@@ -124,7 +116,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>支出最大的月份是几月</t>
+    <t>过去两年中，销售额、支出、利润和利润率分别是多少？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示每种产品按月的销量变化情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地图上展示每个城市的产品销售情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最受欢迎的产品是哪种？最受欢迎的产品中最受欢迎的杯型是那种？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>找出业绩超过平均销售额的门店</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -132,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +172,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -233,7 +249,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -261,31 +277,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,305 +637,309 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="62.88671875" customWidth="1"/>
-    <col min="4" max="4" width="5.44140625" customWidth="1"/>
-    <col min="5" max="5" width="4.88671875" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" customWidth="1"/>
-    <col min="9" max="9" width="27.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="62.875" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="4.875" customWidth="1"/>
+    <col min="6" max="6" width="36.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" customWidth="1"/>
+    <col min="8" max="8" width="22.375" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+    </row>
+    <row r="2" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="4" t="s">
+    <row r="7" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="4" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="3" t="s">
+    <row r="11" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="2" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="4" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="14"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12" t="s">
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="6" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="3" t="s">
+      <c r="D19" s="3"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="14"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="14"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
+      <c r="C22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D22" s="3"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="3" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="6" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
+      <c r="C26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" ht="64.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:6" ht="34.15" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E2:E26"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="B2:B5"/>
@@ -924,12 +947,6 @@
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E2:E26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -944,7 +961,7 @@
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
